--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed5/result_data_RandomForest.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_1_ABCD/D/20/seed5/result_data_RandomForest.xlsx
@@ -592,7 +592,7 @@
         <v>-10.8</v>
       </c>
       <c r="D11" t="n">
-        <v>-7.654099999999996</v>
+        <v>-7.816199999999993</v>
       </c>
     </row>
     <row r="12">
@@ -606,7 +606,7 @@
         <v>-9.76</v>
       </c>
       <c r="D12" t="n">
-        <v>-5.992499999999998</v>
+        <v>-5.915999999999997</v>
       </c>
     </row>
     <row r="13">
@@ -648,7 +648,7 @@
         <v>-13.12</v>
       </c>
       <c r="D15" t="n">
-        <v>-8.301200000000003</v>
+        <v>-8.373600000000003</v>
       </c>
     </row>
     <row r="16">
@@ -816,7 +816,7 @@
         <v>-11.92</v>
       </c>
       <c r="D27" t="n">
-        <v>-7.695600000000002</v>
+        <v>-7.876700000000004</v>
       </c>
     </row>
     <row r="28">
@@ -830,7 +830,7 @@
         <v>-11.8</v>
       </c>
       <c r="D28" t="n">
-        <v>-7.720799999999998</v>
+        <v>-7.832100000000001</v>
       </c>
     </row>
     <row r="29">
@@ -872,7 +872,7 @@
         <v>-11.3</v>
       </c>
       <c r="D31" t="n">
-        <v>-7.305699999999995</v>
+        <v>-7.403899999999997</v>
       </c>
     </row>
     <row r="32">
@@ -886,7 +886,7 @@
         <v>-10.55</v>
       </c>
       <c r="D32" t="n">
-        <v>-7.19589999999999</v>
+        <v>-7.426099999999992</v>
       </c>
     </row>
     <row r="33">
@@ -942,7 +942,7 @@
         <v>-10.09</v>
       </c>
       <c r="D36" t="n">
-        <v>-7.957800000000002</v>
+        <v>-7.871400000000005</v>
       </c>
     </row>
     <row r="37">
@@ -970,7 +970,7 @@
         <v>-12.46</v>
       </c>
       <c r="D38" t="n">
-        <v>-7.462999999999999</v>
+        <v>-7.33</v>
       </c>
     </row>
     <row r="39">
@@ -1082,7 +1082,7 @@
         <v>-11.47</v>
       </c>
       <c r="D46" t="n">
-        <v>-7.647799999999995</v>
+        <v>-7.874799999999996</v>
       </c>
     </row>
     <row r="47">
@@ -1194,7 +1194,7 @@
         <v>-13.87</v>
       </c>
       <c r="D54" t="n">
-        <v>-7.848300000000006</v>
+        <v>-8.053200000000006</v>
       </c>
     </row>
     <row r="55">
@@ -1208,7 +1208,7 @@
         <v>-15.79</v>
       </c>
       <c r="D55" t="n">
-        <v>-7.401599999999997</v>
+        <v>-7.393599999999993</v>
       </c>
     </row>
     <row r="56">
@@ -1222,7 +1222,7 @@
         <v>-13.63</v>
       </c>
       <c r="D56" t="n">
-        <v>-8.718</v>
+        <v>-8.957300000000005</v>
       </c>
     </row>
     <row r="57">
@@ -1376,7 +1376,7 @@
         <v>-10.67</v>
       </c>
       <c r="D67" t="n">
-        <v>-7.546199999999995</v>
+        <v>-7.313099999999999</v>
       </c>
     </row>
     <row r="68">
@@ -1404,7 +1404,7 @@
         <v>-10.8</v>
       </c>
       <c r="D69" t="n">
-        <v>-7.195699999999996</v>
+        <v>-7.209599999999998</v>
       </c>
     </row>
     <row r="70">
@@ -1446,7 +1446,7 @@
         <v>-11.2</v>
       </c>
       <c r="D72" t="n">
-        <v>-7.158200000000003</v>
+        <v>-7.046999999999998</v>
       </c>
     </row>
     <row r="73">
@@ -1460,7 +1460,7 @@
         <v>-15.02</v>
       </c>
       <c r="D73" t="n">
-        <v>-7.656099999999994</v>
+        <v>-7.865399999999994</v>
       </c>
     </row>
     <row r="74">
@@ -1600,7 +1600,7 @@
         <v>-13.03</v>
       </c>
       <c r="D83" t="n">
-        <v>-8.432700000000006</v>
+        <v>-8.434000000000008</v>
       </c>
     </row>
     <row r="84">
@@ -1642,7 +1642,7 @@
         <v>-14.09</v>
       </c>
       <c r="D86" t="n">
-        <v>-8.5425</v>
+        <v>-8.5052</v>
       </c>
     </row>
     <row r="87">
@@ -1712,7 +1712,7 @@
         <v>-12.06</v>
       </c>
       <c r="D91" t="n">
-        <v>-7.783900000000001</v>
+        <v>-7.849200000000003</v>
       </c>
     </row>
     <row r="92">
@@ -1740,7 +1740,7 @@
         <v>-10.09</v>
       </c>
       <c r="D93" t="n">
-        <v>-6.930599999999993</v>
+        <v>-6.993299999999993</v>
       </c>
     </row>
     <row r="94">
@@ -1824,7 +1824,7 @@
         <v>-13.93</v>
       </c>
       <c r="D99" t="n">
-        <v>-8.040599999999998</v>
+        <v>-7.928899999999999</v>
       </c>
     </row>
     <row r="100">
@@ -1894,7 +1894,7 @@
         <v>-11.07</v>
       </c>
       <c r="D104" t="n">
-        <v>-7.624100000000004</v>
+        <v>-7.552100000000004</v>
       </c>
     </row>
     <row r="105">
@@ -1908,7 +1908,7 @@
         <v>-12</v>
       </c>
       <c r="D105" t="n">
-        <v>-8.169700000000002</v>
+        <v>-8.135800000000003</v>
       </c>
     </row>
   </sheetData>
